--- a/ComputedResults/Area/ThreeCornerVowels/Danish/MFCC/3_bordervowels_mfcc_da_ADS.xlsx
+++ b/ComputedResults/Area/ThreeCornerVowels/Danish/MFCC/3_bordervowels_mfcc_da_ADS.xlsx
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2948.783741656758</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="3">
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>626.4011643773867</v>
+        <v>626</v>
       </c>
     </row>
     <row r="4">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2570.731832520877</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="5">
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1469.34092411304</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="6">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3773.4099935209</v>
+        <v>3773</v>
       </c>
     </row>
     <row r="7">
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3942.146246125335</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="8">
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1514.010883851895</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="9">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1775.119890774686</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="10">
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1760.999583055084</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="11">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3350.128198147396</v>
+        <v>3350</v>
       </c>
     </row>
     <row r="12">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1260.993232654353</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="13">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3610.469195544195</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="14">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>6030.667983300757</v>
+        <v>6031</v>
       </c>
     </row>
     <row r="15">
@@ -704,7 +704,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1982.934988757254</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="16">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1526.434295185861</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="17">
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2034.710085818494</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="18">
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2219.812628887201</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="19">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3188.428897405581</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="20">
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3557.751462661433</v>
+        <v>3558</v>
       </c>
     </row>
     <row r="21">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1990.987819319048</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="22">
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3552.111905368855</v>
+        <v>3552</v>
       </c>
     </row>
     <row r="23">
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>5472.507514468005</v>
+        <v>5473</v>
       </c>
     </row>
     <row r="24">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>3026.654093816279</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="25">
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>5235.819696592822</v>
+        <v>5236</v>
       </c>
     </row>
     <row r="26">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2614.842688812639</v>
+        <v>2615</v>
       </c>
     </row>
   </sheetData>
